--- a/PIC.xlsx
+++ b/PIC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PIC 16F54" sheetId="1" r:id="rId1"/>
@@ -1044,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
